--- a/Item.xlsx
+++ b/Item.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\GitHub\TheEscapeProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>DataId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,17 +50,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>WifthPlatform</t>
+  </si>
+  <si>
+    <t>LengthPlatform</t>
+  </si>
+  <si>
+    <t>Door</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RotateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReflectValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reflective</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refraction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FlashBang</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WifthPlatform</t>
-  </si>
-  <si>
-    <t>Distance</t>
-  </si>
-  <si>
-    <t>LengthPlatform</t>
   </si>
 </sst>
 </file>
@@ -106,8 +123,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -390,22 +410,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,71 +433,183 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>8</v>
+      <c r="H1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>600</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>601</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>3</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>25</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.5</v>
       </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>602</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>603</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>605</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>610</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>